--- a/TDS.xlsx
+++ b/TDS.xlsx
@@ -19,19 +19,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>B23-24MQ114 TDS 201.77</t>
-  </si>
-  <si>
-    <t>B23-24MQ207- TDS 48.31</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>TDS Deducted</t>
+  </si>
+  <si>
+    <t>B23-24MQ315</t>
+  </si>
+  <si>
+    <t>B23-24MQ208</t>
+  </si>
+  <si>
+    <t>B23-24MQ210</t>
+  </si>
+  <si>
+    <t>Invoice Amount</t>
+  </si>
+  <si>
+    <t>B23-24MQ114</t>
+  </si>
+  <si>
+    <t>B23-24MQ207</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>B23-24AQ302</t>
+  </si>
+  <si>
+    <t>B23-24MQ303</t>
+  </si>
+  <si>
+    <t>B23-24AQ305</t>
+  </si>
+  <si>
+    <t>B23-24AQ307</t>
+  </si>
+  <si>
+    <t>B23-24MQ311</t>
+  </si>
+  <si>
+    <t>B23-24AQ312</t>
+  </si>
+  <si>
+    <t>B23-24MQ304</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,9 +88,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Courier"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,13 +120,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,25 +445,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="18.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
+        <v>45184</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>369945</v>
+      </c>
+      <c r="D2" s="7">
+        <v>201.77</v>
+      </c>
+      <c r="E2" s="7">
+        <v>369743.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
+        <v>45184</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>57006</v>
+      </c>
+      <c r="D3" s="7">
+        <v>48.31</v>
+      </c>
+      <c r="E3" s="7">
+        <v>56957.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>45224</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>144302.20000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>122.29</v>
+      </c>
+      <c r="E4" s="7">
+        <v>144179.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>45224</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <v>39747</v>
+      </c>
+      <c r="D5" s="7">
+        <v>33.68</v>
+      </c>
+      <c r="E5" s="7">
+        <v>39713.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>45254</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>112076</v>
+      </c>
+      <c r="D6" s="7">
+        <v>94.98</v>
+      </c>
+      <c r="E6" s="7">
+        <v>111981.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>45254</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>338370.9</v>
+      </c>
+      <c r="D7" s="7">
+        <v>286.76</v>
+      </c>
+      <c r="E7" s="7">
+        <v>338084.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>45254</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7">
+        <v>134289</v>
+      </c>
+      <c r="D8" s="7">
+        <v>113.8</v>
+      </c>
+      <c r="E8" s="7">
+        <v>134175.20000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>45254</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>304575.7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>258.12</v>
+      </c>
+      <c r="E9" s="7">
+        <v>304317.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>45268</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>106200</v>
+      </c>
+      <c r="D10" s="7">
+        <v>90</v>
+      </c>
+      <c r="E10" s="7">
+        <v>106110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>45268</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>66245</v>
+      </c>
+      <c r="D11" s="7">
+        <v>56.14</v>
+      </c>
+      <c r="E11" s="7">
+        <v>66188.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>45268</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>83473</v>
+      </c>
+      <c r="D12" s="7">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="E12" s="7">
+        <v>83402.259999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>45293</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>170274</v>
+      </c>
+      <c r="D13" s="7">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="E13" s="7">
+        <v>170129.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="1">
+        <f>SUM(C2:C13)</f>
+        <v>1926503.8</v>
+      </c>
+      <c r="D14" s="1">
+        <f>SUM(D2:D13)</f>
+        <v>1520.89</v>
+      </c>
+      <c r="E14" s="1">
+        <f>SUM(E2:E13)</f>
+        <v>1924982.9100000001</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>